--- a/items_data/target.xlsx
+++ b/items_data/target.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
@@ -522,7 +522,53 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="12.8" customHeight="1" s="4"/>
+    <row r="2" ht="12.8" customHeight="1" s="4">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Squishmallows Official Kellytoy Plush 11" Lena the Guava Ultrasoft Stuffed Animal Plush Toy</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lena the Guava Ultrasoft Stuffed Animal Plush Toy</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11"</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.target.com/p/squishmallows-official-kellytoy-plush-11-34-lena-the-guava-ultrasoft-stuffed-animal-plush-toy/-/A-80959937#lnk=sametab</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>GUEST_63146cc7-8c5e-40be-8a53-86df1fef35c3.jpg</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Target</t>
+        </is>
+      </c>
+    </row>
     <row r="3" ht="12.8" customHeight="1" s="4"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/items_data/target.xlsx
+++ b/items_data/target.xlsx
@@ -523,47 +523,47 @@
       </c>
     </row>
     <row r="2" ht="12.8" customHeight="1" s="4">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Squishmallows Official Kellytoy Plush 11" Lena the Guava Ultrasoft Stuffed Animal Plush Toy</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Lena the Guava Ultrasoft Stuffed Animal Plush Toy</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>9.99</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>11"</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>https://www.target.com/p/squishmallows-official-kellytoy-plush-11-34-lena-the-guava-ultrasoft-stuffed-animal-plush-toy/-/A-80959937#lnk=sametab</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>GUEST_63146cc7-8c5e-40be-8a53-86df1fef35c3.jpg</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Target</t>
         </is>
